--- a/Assets/Other/_item.xlsx
+++ b/Assets/Other/_item.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流派" sheetId="9" r:id="rId1"/>
-    <sheet name="消耗品" sheetId="1" r:id="rId2"/>
-    <sheet name="记忆" sheetId="2" r:id="rId3"/>
-    <sheet name="其他强化" sheetId="10" r:id="rId4"/>
-    <sheet name="装备（躯体）" sheetId="3" r:id="rId5"/>
-    <sheet name="装备（魂魄）" sheetId="4" r:id="rId6"/>
-    <sheet name="技能" sheetId="6" r:id="rId7"/>
-    <sheet name="姿态" sheetId="7" r:id="rId8"/>
-    <sheet name="特质" sheetId="5" r:id="rId9"/>
-    <sheet name="状态" sheetId="8" r:id="rId10"/>
+    <sheet name="卷轴" sheetId="11" r:id="rId2"/>
+    <sheet name="技能" sheetId="6" r:id="rId3"/>
+    <sheet name="消耗品" sheetId="1" r:id="rId4"/>
+    <sheet name="记忆" sheetId="2" r:id="rId5"/>
+    <sheet name="其他强化" sheetId="10" r:id="rId6"/>
+    <sheet name="装备（躯体）" sheetId="3" r:id="rId7"/>
+    <sheet name="装备（魂魄）" sheetId="4" r:id="rId8"/>
+    <sheet name="姿态" sheetId="7" r:id="rId9"/>
+    <sheet name="特质" sheetId="5" r:id="rId10"/>
+    <sheet name="状态" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
   <si>
     <t>1.技能流</t>
   </si>
@@ -37,6 +38,225 @@
     <t>通过大量召唤随从，把敌人杀光，然后群殴boss</t>
   </si>
   <si>
+    <t>一次性消耗品</t>
+  </si>
+  <si>
+    <t>大还丹</t>
+  </si>
+  <si>
+    <t>回血10</t>
+  </si>
+  <si>
+    <t>灵魄丹</t>
+  </si>
+  <si>
+    <t>太玄金丹（白）</t>
+  </si>
+  <si>
+    <t>恢复理智20</t>
+  </si>
+  <si>
+    <t>和太玄金丹（黑）效果相同，不过是牛奶味儿的</t>
+  </si>
+  <si>
+    <t>太玄金丹（黑）</t>
+  </si>
+  <si>
+    <t>恢复理智19</t>
+  </si>
+  <si>
+    <t>和太玄金丹（白）效果相同，只是掉在地上被弄脏了</t>
+  </si>
+  <si>
+    <t>肾宝</t>
+  </si>
+  <si>
+    <t>理智-5，获得buff 狂暴1层，本房间内有效</t>
+  </si>
+  <si>
+    <t>净心神咒</t>
+  </si>
+  <si>
+    <t>获得buff 宁静1层</t>
+  </si>
+  <si>
+    <t>太上台星　应变无停 驱邪缚魅　保命护身 智慧明净　心神安宁 三魂永久　魄无丧倾</t>
+  </si>
+  <si>
+    <t>净口神咒</t>
+  </si>
+  <si>
+    <t>获得buff 强化颂念1层 （法术效果）</t>
+  </si>
+  <si>
+    <t>净身神咒</t>
+  </si>
+  <si>
+    <t>获得buff 稳固1层</t>
+  </si>
+  <si>
+    <t>净天神咒</t>
+  </si>
+  <si>
+    <t>视野内阴灵 获得超度buff</t>
+  </si>
+  <si>
+    <t>安土神咒</t>
+  </si>
+  <si>
+    <t>视野内阴灵 获得困锁buff</t>
+  </si>
+  <si>
+    <t>金光神咒</t>
+  </si>
+  <si>
+    <t>视野内阴灵 受到伤害 改变环境 阳盛阴衰</t>
+  </si>
+  <si>
+    <t>祝香神咒</t>
+  </si>
+  <si>
+    <t>类似请神</t>
+  </si>
+  <si>
+    <t>玄蕴咒</t>
+  </si>
+  <si>
+    <t>类似强化</t>
+  </si>
+  <si>
+    <t>北斗神咒</t>
+  </si>
+  <si>
+    <t>大威力</t>
+  </si>
+  <si>
+    <t>符咒——撒豆成兵</t>
+  </si>
+  <si>
+    <t>召唤豆兵随从 可使用3次</t>
+  </si>
+  <si>
+    <t>豆兵死亡后留下豆苗（一件饰品），开花结果后结出兵豆，可再释放一次</t>
+  </si>
+  <si>
+    <t>符咒——钉头七箭</t>
+  </si>
+  <si>
+    <t>造成大量阴属性伤害</t>
+  </si>
+  <si>
+    <t>符咒——起死回生</t>
+  </si>
+  <si>
+    <t>将阴灵转化为活尸</t>
+  </si>
+  <si>
+    <t>符咒——飞砂走石</t>
+  </si>
+  <si>
+    <t>环境buff 飞沙走石 每回合造成阳属性伤害1点</t>
+  </si>
+  <si>
+    <t>符咒——花开顷刻</t>
+  </si>
+  <si>
+    <t>点化未成熟的草药（精怪、随从、木系物品），使其立刻成熟</t>
+  </si>
+  <si>
+    <t>符咒——颠倒阴阳</t>
+  </si>
+  <si>
+    <t>阴阳倒转</t>
+  </si>
+  <si>
+    <t>符咒——正立无影</t>
+  </si>
+  <si>
+    <t>免疫所有伤害1回合</t>
+  </si>
+  <si>
+    <t>符咒——隔垣洞见</t>
+  </si>
+  <si>
+    <t>翻开所有卡牌</t>
+  </si>
+  <si>
+    <t>符咒——回风返火</t>
+  </si>
+  <si>
+    <t>反弹攻击1回合（如持续中毒造成的伤害就不能反弹）</t>
+  </si>
+  <si>
+    <t>符咒——导出元阳</t>
+  </si>
+  <si>
+    <t>吸取阳气</t>
+  </si>
+  <si>
+    <t>符咒——降龙伏虎</t>
+  </si>
+  <si>
+    <t>十回合内力量翻倍</t>
+  </si>
+  <si>
+    <t>技能是类似苦痛之环里魔法书一样的</t>
+  </si>
+  <si>
+    <t>有一定的冷却时间，然后作用会比较大</t>
+  </si>
+  <si>
+    <t>由于本游戏允许使用防御姿态硬抗</t>
+  </si>
+  <si>
+    <t>所以可以衍生出原地防御，靠技能输出的打法</t>
+  </si>
+  <si>
+    <t>可以考虑暂时照抄苦痛之环的魔法书</t>
+  </si>
+  <si>
+    <t>数值均为临时</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>掌心雷</t>
+  </si>
+  <si>
+    <t>造成5+阳气攻击*2的伤害，如果自身是阴气状态，则受5点伤害</t>
+  </si>
+  <si>
+    <t>敕令-定身</t>
+  </si>
+  <si>
+    <t>定住敌人2回合</t>
+  </si>
+  <si>
+    <t>敕令-蚀目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使指定生物获得目盲buff  持续2回合 其攻击有50%几率失手， </t>
+  </si>
+  <si>
+    <t>敕令-请神</t>
+  </si>
+  <si>
+    <t>对自己造成1点伤害，获得请神buff（力量提升），持续3回合</t>
+  </si>
+  <si>
+    <t>敕令-拘魂</t>
+  </si>
+  <si>
+    <t>使指定阳气生物获得出窍buff 持续1回合 魂魄出窍，直接对其魂魄造成阴气伤害</t>
+  </si>
+  <si>
     <t>魂魄</t>
   </si>
   <si>
@@ -151,10 +371,61 @@
     <t>故乡：</t>
   </si>
   <si>
-    <t>回忆起自己的故乡</t>
-  </si>
-  <si>
-    <t>从所有选择中选择一个</t>
+    <t>回忆起自己的故乡，从所有选择中选择一个</t>
+  </si>
+  <si>
+    <t>险峻群山</t>
+  </si>
+  <si>
+    <t>力量+</t>
+  </si>
+  <si>
+    <t>广阔草原</t>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>体质+</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>小桥流水</t>
+  </si>
+  <si>
+    <t>理智+</t>
+  </si>
+  <si>
+    <t>职业：</t>
+  </si>
+  <si>
+    <t>回忆起前世的职业，从所有选择中选择一个</t>
+  </si>
+  <si>
+    <t>猎人：在山林中潜行是你的强项，潜行、察觉几率均+10%</t>
+  </si>
+  <si>
+    <t>屠户：你熟悉这些野兽身上每一块肌肉，和拥抱它们的筋膜，对野兽伤害+1</t>
+  </si>
+  <si>
+    <t>货郎：你对讨价还价，检定物品有所心得。交易价格-10%</t>
+  </si>
+  <si>
+    <t>医生：你擅长处理伤口，回复生命效果+1</t>
+  </si>
+  <si>
+    <t>匠人：你对各类物品内部结构有所了解，装备回收+10%</t>
+  </si>
+  <si>
+    <t>佃户：常年劳作与压榨使你变得麻木，压力-10%</t>
+  </si>
+  <si>
+    <t>老兵：你擅长使用各类武器，阳气武器伤害+1</t>
+  </si>
+  <si>
+    <t>祭祀：你曾常年引领族人祭祀祖先，人间香火+10%</t>
   </si>
   <si>
     <t>死因</t>
@@ -163,6 +434,24 @@
     <t>从所有死因中选择一个</t>
   </si>
   <si>
+    <t>饿死鬼</t>
+  </si>
+  <si>
+    <t>你因饥荒而死，没人能比你更了解、珍视食物，扎营、击败敌人时收集食物能力+1，食物带来的生命恢复+1</t>
+  </si>
+  <si>
+    <t>病死</t>
+  </si>
+  <si>
+    <t>你因长久的疾病折磨而死，久病自成医，药品带来的生命恢复+1</t>
+  </si>
+  <si>
+    <t>猝死</t>
+  </si>
+  <si>
+    <t>你死时，只留下一声低低的呻吟，“早安，打工人”，</t>
+  </si>
+  <si>
     <t>罪业/善果：调整状态、难度</t>
   </si>
   <si>
@@ -178,6 +467,18 @@
     <t>等等有debuff的好处</t>
   </si>
   <si>
+    <t>血统：收集血肉，搭建祭坛，向自己献祭，你将成为妖魔，这是堕落，还是升华？</t>
+  </si>
+  <si>
+    <t>获取一种怪物血统</t>
+  </si>
+  <si>
+    <t>需对指定怪物有了解——解锁其图鉴</t>
+  </si>
+  <si>
+    <t>需获取其身上的血肉</t>
+  </si>
+  <si>
     <t>混血：考虑通过将怪物尸体献祭，获得怪物的血脉，比如史莱姆血统：对劈砍伤害防御+3，史莱姆族怪物对你敌意-1</t>
   </si>
   <si>
@@ -199,19 +500,7 @@
     <t>钥匙</t>
   </si>
   <si>
-    <t>技能是类似苦痛之环里魔法书一样的</t>
-  </si>
-  <si>
-    <t>有一定的冷却时间，然后作用会比较大</t>
-  </si>
-  <si>
-    <t>由于本游戏允许使用防御姿态硬抗</t>
-  </si>
-  <si>
-    <t>所以可以衍生出原地防御，靠技能输出的打法</t>
-  </si>
-  <si>
-    <t>可以考虑暂时照抄苦痛之环的魔法书</t>
+    <t>木系物品：会进行成长，每个房间长进度条，如桃木剑，成长开花</t>
   </si>
   <si>
     <t>默认：正常姿态</t>
@@ -265,10 +554,13 @@
     <t>强健</t>
   </si>
   <si>
+    <t>力量+1 体质+1</t>
+  </si>
+  <si>
     <t>肥胖</t>
   </si>
   <si>
-    <t>瘦弱</t>
+    <t>力量+1 体质-1</t>
   </si>
   <si>
     <t>阴：————————</t>
@@ -280,7 +572,13 @@
     <t>精通先攻</t>
   </si>
   <si>
+    <t>先攻+1</t>
+  </si>
+  <si>
     <t>神志清醒</t>
+  </si>
+  <si>
+    <t>理智+1</t>
   </si>
   <si>
     <t>沉默</t>
@@ -387,10 +685,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -402,7 +700,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,16 +722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,15 +744,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,26 +765,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,18 +790,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,14 +837,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,6 +852,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,13 +966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,151 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +1043,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,26 +1118,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,45 +1143,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -853,10 +1151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,133 +1163,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,6 +1685,82 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1400,142 +1774,142 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1547,9 +1921,364 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1557,71 +2286,71 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -1631,13 +2360,13 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -1647,64 +2376,64 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1714,163 +2443,218 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>46</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:1">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1881,6 +2665,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1896,49 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B12"/>
@@ -1951,124 +2766,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_item.xlsx
+++ b/Assets/Other/_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="流派" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="288">
   <si>
     <t>1.技能流</t>
   </si>
@@ -38,6 +38,27 @@
     <t>通过大量召唤随从，把敌人杀光，然后群殴boss</t>
   </si>
   <si>
+    <t>3.防御反击流</t>
+  </si>
+  <si>
+    <t>通过防御，格挡敌人的攻击，大部分敌人可以无脑防住，然后通过debuff、放毒等方法消灭</t>
+  </si>
+  <si>
+    <t>4.血牛换血流</t>
+  </si>
+  <si>
+    <t>就是肉</t>
+  </si>
+  <si>
+    <t>高闪避</t>
+  </si>
+  <si>
+    <t>阴阳流</t>
+  </si>
+  <si>
+    <t>频繁阴阳倒转，以取得优势</t>
+  </si>
+  <si>
     <t>一次性消耗品</t>
   </si>
   <si>
@@ -579,6 +600,490 @@
   </si>
   <si>
     <t>理智+1</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>额外效果</t>
+  </si>
+  <si>
+    <t>锻炼契机</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>灵敏</t>
+  </si>
+  <si>
+    <t>先攻权</t>
+  </si>
+  <si>
+    <t>精通闪避</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>强壮</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>短跑健将</t>
+  </si>
+  <si>
+    <t>基础移动速度</t>
+  </si>
+  <si>
+    <t>长跑健将</t>
+  </si>
+  <si>
+    <t>最大体力</t>
+  </si>
+  <si>
+    <t>机警过人</t>
+  </si>
+  <si>
+    <t>侦查技能检定</t>
+  </si>
+  <si>
+    <t>精通潜伏</t>
+  </si>
+  <si>
+    <t>潜伏技能检定</t>
+  </si>
+  <si>
+    <t>命不该绝</t>
+  </si>
+  <si>
+    <t>buff：命不该绝</t>
+  </si>
+  <si>
+    <t>濒死时，每轮回复生命+1</t>
+  </si>
+  <si>
+    <t>曾经濒死1次</t>
+  </si>
+  <si>
+    <t>异乡人</t>
+  </si>
+  <si>
+    <t>坚韧意志</t>
+  </si>
+  <si>
+    <t>心志</t>
+  </si>
+  <si>
+    <t>花花公子</t>
+  </si>
+  <si>
+    <t>魅惑判定难度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花销大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>苦行僧</t>
+  </si>
+  <si>
+    <t>心志，体质</t>
+  </si>
+  <si>
+    <t>高级xx</t>
+  </si>
+  <si>
+    <t>抗寒专家</t>
+  </si>
+  <si>
+    <t>寒冷抗性</t>
+  </si>
+  <si>
+    <t>累计受到寒冷伤害大于50</t>
+  </si>
+  <si>
+    <t>抗热专家</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计受到火属性伤害大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <t>钢铁肠胃</t>
+  </si>
+  <si>
+    <t>因饮食造成的伤害减半</t>
+  </si>
+  <si>
+    <t>独行侠</t>
+  </si>
+  <si>
+    <t>所有判定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队伍中人数最多为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>热脸</t>
+  </si>
+  <si>
+    <t>交涉技能检定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魅力大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11)</t>
+    </r>
+  </si>
+  <si>
+    <t>冷屁股</t>
+  </si>
+  <si>
+    <t>威吓技能检定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魅力小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擅长盔甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>盔甲减值</t>
+  </si>
+  <si>
+    <t>穿戴轻型盔甲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擅长盔甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有专长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>穿戴中型盔甲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擅长盔甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>穿戴重型盔甲</t>
+  </si>
+  <si>
+    <t>各类改造</t>
+  </si>
+  <si>
+    <t>机械</t>
+  </si>
+  <si>
+    <t>鬼畜改造</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放一个动作时有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率再释放一次</t>
+    </r>
+  </si>
+  <si>
+    <t>高级鬼畜改造</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若判定失败，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率再判定一次</t>
+    </r>
   </si>
   <si>
     <t>沉默</t>
@@ -685,12 +1190,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,38 +1204,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,22 +1245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,15 +1261,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,11 +1290,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,6 +1331,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -838,6 +1348,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +1393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,31 +1429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +1465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,37 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,24 +1560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1079,6 +1578,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1090,6 +1598,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,151 +1668,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1648,13 +2171,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1674,6 +2197,41 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1685,72 +2243,532 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
-      </c>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1774,142 +2792,142 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1936,219 +2954,219 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2173,98 +3191,98 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2286,154 +3304,154 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +3466,7 @@
   <sheetPr/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2456,205 +3474,205 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2677,22 +3695,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2714,20 +3732,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2766,67 +3784,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
